--- a/SudokuNotes.xlsx
+++ b/SudokuNotes.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="17240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="17240" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -22,18 +24,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="59">
   <si>
     <t>(3,5,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5,7,9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,5,9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4,9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4,9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>col/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(row/3)*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>*</t>
@@ -124,79 +158,79 @@
   </si>
   <si>
     <t>(5,8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(4,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(5,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(4,5,7,8,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(5,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(5,7,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,3,5,8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(5,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(4,5,8,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(5,7,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,5,7,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,5,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,5,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,5,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,8,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,8,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(1,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(3,5,9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -209,7 +243,11 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -224,7 +262,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +272,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -342,13 +398,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,10 +415,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +814,7 @@
   <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1218,15 +1338,15 @@
     </row>
     <row r="29" spans="1:10">
       <c r="C29" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1289,10 +1409,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
@@ -1301,27 +1421,27 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="14" thickBot="1">
       <c r="D6" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9">
         <v>7</v>
@@ -1330,10 +1450,10 @@
         <v>6</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L6" s="10">
         <v>2</v>
@@ -1347,7 +1467,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2">
         <v>7</v>
@@ -1356,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -1385,24 +1505,24 @@
         <v>6</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="14" thickBot="1">
       <c r="D9" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F9" s="10">
         <v>7</v>
@@ -1423,18 +1543,18 @@
         <v>6</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="4:12">
       <c r="D10" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
@@ -1449,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L10" s="4">
         <v>3</v>
@@ -1457,13 +1577,13 @@
     </row>
     <row r="11" spans="4:12">
       <c r="D11" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6">
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1478,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7">
         <v>7</v>
@@ -1486,7 +1606,7 @@
     </row>
     <row r="12" spans="4:12" ht="14" thickBot="1">
       <c r="D12" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E12" s="9">
         <v>7</v>
@@ -1507,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L12" s="10">
         <v>8</v>
@@ -1515,7 +1635,7 @@
     </row>
     <row r="20" spans="19:24">
       <c r="S20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -1526,7 +1646,7 @@
     </row>
     <row r="21" spans="19:24">
       <c r="S21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T21">
         <v>4</v>
@@ -1537,7 +1657,7 @@
     </row>
     <row r="22" spans="19:24">
       <c r="S22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T22">
         <v>5</v>
@@ -1551,7 +1671,7 @@
     </row>
     <row r="23" spans="19:24">
       <c r="S23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T23">
         <v>4</v>
@@ -1571,7 +1691,7 @@
     </row>
     <row r="24" spans="19:24">
       <c r="S24" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T24">
         <v>5</v>
@@ -1582,7 +1702,7 @@
     </row>
     <row r="25" spans="19:24">
       <c r="S25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -1599,7 +1719,7 @@
     </row>
     <row r="26" spans="19:24">
       <c r="S26" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -1610,7 +1730,7 @@
     </row>
     <row r="27" spans="19:24">
       <c r="S27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -1627,7 +1747,7 @@
     </row>
     <row r="28" spans="19:24">
       <c r="S28" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T28">
         <v>4</v>
@@ -1638,7 +1758,7 @@
     </row>
     <row r="29" spans="19:24">
       <c r="S29" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T29">
         <v>5</v>
@@ -1649,7 +1769,7 @@
     </row>
     <row r="30" spans="19:24">
       <c r="S30" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="T30">
         <v>4</v>
@@ -1666,7 +1786,7 @@
     </row>
     <row r="31" spans="19:24">
       <c r="S31" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="T31">
         <v>5</v>
@@ -1677,7 +1797,7 @@
     </row>
     <row r="32" spans="19:24">
       <c r="S32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T32">
         <v>5</v>
@@ -1688,7 +1808,7 @@
     </row>
     <row r="33" spans="19:23">
       <c r="S33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="T33">
         <v>5</v>
@@ -1699,7 +1819,7 @@
     </row>
     <row r="34" spans="19:23">
       <c r="S34" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="T34">
         <v>5</v>
@@ -1713,7 +1833,7 @@
     </row>
     <row r="35" spans="19:23">
       <c r="S35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -1730,7 +1850,7 @@
     </row>
     <row r="36" spans="19:23">
       <c r="S36" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -1744,7 +1864,7 @@
     </row>
     <row r="37" spans="19:23">
       <c r="S37" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -1758,7 +1878,7 @@
     </row>
     <row r="38" spans="19:23">
       <c r="S38" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -1769,7 +1889,7 @@
     </row>
     <row r="39" spans="19:23">
       <c r="S39" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -1783,7 +1903,7 @@
     </row>
     <row r="40" spans="19:23">
       <c r="S40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -1797,7 +1917,7 @@
     </row>
     <row r="41" spans="19:23">
       <c r="S41" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -1811,7 +1931,7 @@
     </row>
     <row r="42" spans="19:23">
       <c r="S42" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -1822,7 +1942,7 @@
     </row>
     <row r="43" spans="19:23">
       <c r="S43" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T43">
         <v>3</v>
@@ -1836,7 +1956,7 @@
     </row>
     <row r="44" spans="19:23">
       <c r="S44" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T44">
         <v>3</v>
@@ -1850,7 +1970,7 @@
     </row>
     <row r="45" spans="19:23">
       <c r="S45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="T45">
         <v>5</v>
@@ -1861,7 +1981,7 @@
     </row>
     <row r="46" spans="19:23">
       <c r="S46" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -1872,7 +1992,7 @@
     </row>
     <row r="47" spans="19:23">
       <c r="S47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T47">
         <v>1</v>
@@ -1883,7 +2003,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1898,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="D3:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1920,270 +2040,270 @@
   <sheetData>
     <row r="3" spans="4:13" ht="14" thickBot="1"/>
     <row r="4" spans="4:13">
-      <c r="D4" s="18">
-        <v>7</v>
-      </c>
-      <c r="E4" s="19">
-        <v>9</v>
-      </c>
-      <c r="F4" s="20">
-        <v>4</v>
-      </c>
-      <c r="G4" s="18">
-        <v>5</v>
-      </c>
-      <c r="H4" s="19">
-        <v>8</v>
-      </c>
-      <c r="I4" s="20">
-        <v>2</v>
-      </c>
-      <c r="J4" s="18">
-        <v>1</v>
-      </c>
-      <c r="K4" s="19">
-        <v>3</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="D4" s="19">
+        <v>7</v>
+      </c>
+      <c r="E4" s="20">
+        <v>9</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4</v>
+      </c>
+      <c r="G4" s="19">
+        <v>5</v>
+      </c>
+      <c r="H4" s="20">
+        <v>8</v>
+      </c>
+      <c r="I4" s="21">
+        <v>2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20">
+        <v>3</v>
+      </c>
+      <c r="L4" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="21">
-        <v>2</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="22">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
         <v>6</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="22">
-        <v>3</v>
-      </c>
-      <c r="I5" s="23">
+        <v>41</v>
+      </c>
+      <c r="H5" s="23">
+        <v>3</v>
+      </c>
+      <c r="I5" s="24">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="4:13" ht="14" thickBot="1">
-      <c r="D6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="24">
-        <v>7</v>
-      </c>
-      <c r="I6" s="25">
-        <v>6</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="25">
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="25">
+        <v>7</v>
+      </c>
+      <c r="I6" s="26">
+        <v>6</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="4:13">
-      <c r="D7" s="18">
-        <v>6</v>
-      </c>
-      <c r="E7" s="19">
-        <v>8</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="18">
-        <v>7</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="18">
-        <v>3</v>
-      </c>
-      <c r="K7" s="19">
-        <v>2</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="D7" s="19">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20">
+        <v>8</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="19">
+        <v>7</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="19">
+        <v>3</v>
+      </c>
+      <c r="K7" s="20">
+        <v>2</v>
+      </c>
+      <c r="L7" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="21">
-        <v>4</v>
-      </c>
-      <c r="E8" s="22">
-        <v>3</v>
-      </c>
-      <c r="F8" s="23">
-        <v>2</v>
-      </c>
-      <c r="G8" s="21">
-        <v>8</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="D8" s="22">
+        <v>4</v>
+      </c>
+      <c r="E8" s="23">
+        <v>3</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2</v>
+      </c>
+      <c r="G8" s="22">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23">
         <v>6</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="4:13" ht="14" thickBot="1">
-      <c r="D9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="25">
-        <v>7</v>
-      </c>
-      <c r="G9" s="26">
-        <v>2</v>
-      </c>
-      <c r="H9" s="24">
-        <v>4</v>
-      </c>
-      <c r="I9" s="25">
-        <v>3</v>
-      </c>
-      <c r="J9" s="26">
-        <v>8</v>
-      </c>
-      <c r="K9" s="24">
-        <v>6</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>46</v>
+      <c r="D9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="26">
+        <v>7</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25">
+        <v>4</v>
+      </c>
+      <c r="I9" s="26">
+        <v>3</v>
+      </c>
+      <c r="J9" s="27">
+        <v>8</v>
+      </c>
+      <c r="K9" s="25">
+        <v>6</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="4:13">
-      <c r="D10" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="18">
-        <v>6</v>
-      </c>
-      <c r="H10" s="19">
-        <v>5</v>
-      </c>
-      <c r="I10" s="20">
-        <v>7</v>
-      </c>
-      <c r="J10" s="19">
-        <v>4</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="D10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="19">
+        <v>6</v>
+      </c>
+      <c r="H10" s="20">
+        <v>5</v>
+      </c>
+      <c r="I10" s="21">
+        <v>7</v>
+      </c>
+      <c r="J10" s="20">
+        <v>4</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="4:13">
       <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="22">
-        <v>4</v>
-      </c>
-      <c r="F11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="23">
+        <v>4</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22">
-        <v>2</v>
-      </c>
-      <c r="I11" s="23">
-        <v>8</v>
-      </c>
-      <c r="J11" s="22">
-        <v>6</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="23">
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23">
+        <v>2</v>
+      </c>
+      <c r="I11" s="24">
+        <v>8</v>
+      </c>
+      <c r="J11" s="23">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="4:13" ht="14" thickBot="1">
-      <c r="D12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="24">
-        <v>7</v>
-      </c>
-      <c r="F12" s="24">
-        <v>6</v>
-      </c>
-      <c r="G12" s="26">
-        <v>3</v>
-      </c>
-      <c r="H12" s="24">
-        <v>9</v>
-      </c>
-      <c r="I12" s="25">
-        <v>4</v>
-      </c>
-      <c r="J12" s="24">
-        <v>2</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="25">
+      <c r="D12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="25">
+        <v>7</v>
+      </c>
+      <c r="F12" s="25">
+        <v>6</v>
+      </c>
+      <c r="G12" s="27">
+        <v>3</v>
+      </c>
+      <c r="H12" s="25">
+        <v>9</v>
+      </c>
+      <c r="I12" s="26">
+        <v>4</v>
+      </c>
+      <c r="J12" s="25">
+        <v>2</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
@@ -2197,7 +2317,7 @@
     </row>
     <row r="20" spans="5:10">
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -2211,7 +2331,7 @@
     </row>
     <row r="21" spans="5:10">
       <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1">
         <v>5</v>
@@ -2227,7 +2347,7 @@
     </row>
     <row r="22" spans="5:10">
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
@@ -2247,7 +2367,7 @@
     </row>
     <row r="23" spans="5:10">
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -2261,7 +2381,7 @@
     </row>
     <row r="24" spans="5:10">
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2278,7 +2398,7 @@
     </row>
     <row r="25" spans="5:10">
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2291,7 +2411,7 @@
     </row>
     <row r="26" spans="5:10">
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2308,7 +2428,7 @@
     </row>
     <row r="27" spans="5:10">
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
@@ -2321,7 +2441,7 @@
     </row>
     <row r="28" spans="5:10">
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1">
         <v>5</v>
@@ -2334,7 +2454,7 @@
     </row>
     <row r="29" spans="5:10">
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
@@ -2351,7 +2471,7 @@
     </row>
     <row r="30" spans="5:10">
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F30" s="1">
         <v>5</v>
@@ -2364,7 +2484,7 @@
     </row>
     <row r="31" spans="5:10">
       <c r="E31" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F31" s="1">
         <v>5</v>
@@ -2377,7 +2497,7 @@
     </row>
     <row r="32" spans="5:10">
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1">
         <v>5</v>
@@ -2390,7 +2510,7 @@
     </row>
     <row r="33" spans="5:9">
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F33" s="1">
         <v>5</v>
@@ -2405,7 +2525,7 @@
     </row>
     <row r="34" spans="5:9">
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -2422,7 +2542,7 @@
     </row>
     <row r="35" spans="5:9">
       <c r="E35" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2437,7 +2557,7 @@
     </row>
     <row r="36" spans="5:9">
       <c r="E36" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -2451,7 +2571,7 @@
     </row>
     <row r="37" spans="5:9">
       <c r="E37" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -2463,7 +2583,7 @@
     </row>
     <row r="38" spans="5:9">
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2477,7 +2597,7 @@
     </row>
     <row r="39" spans="5:9">
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -2491,7 +2611,7 @@
     </row>
     <row r="40" spans="5:9">
       <c r="E40" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -2505,7 +2625,7 @@
     </row>
     <row r="41" spans="5:9">
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -2517,7 +2637,7 @@
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -2531,7 +2651,7 @@
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -2545,7 +2665,7 @@
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -2556,7 +2676,7 @@
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2567,7 +2687,7 @@
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2578,7 +2698,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2604,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -2615,7 +2735,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -2626,7 +2746,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -2640,7 +2760,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2660,7 +2780,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -2671,7 +2791,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2688,7 +2808,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2699,7 +2819,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2716,7 +2836,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2727,7 +2847,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2738,7 +2858,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2755,7 +2875,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2766,7 +2886,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -2777,7 +2897,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -2788,7 +2908,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -2802,7 +2922,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2819,7 +2939,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2833,7 +2953,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2847,7 +2967,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2858,7 +2978,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2872,7 +2992,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2886,7 +3006,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2900,7 +3020,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2911,7 +3031,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2925,7 +3045,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -2939,7 +3059,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -2950,7 +3070,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2961,7 +3081,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2972,7 +3092,1711 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14" thickBot="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="19">
+        <v>7</v>
+      </c>
+      <c r="B2" s="20">
+        <v>9</v>
+      </c>
+      <c r="C2" s="21">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19">
+        <v>5</v>
+      </c>
+      <c r="E2" s="20">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
+        <v>3</v>
+      </c>
+      <c r="I2" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>6</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="23">
+        <v>3</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="86"/>
+    </row>
+    <row r="4" spans="1:9" ht="14" thickBot="1">
+      <c r="A4" s="59">
+        <v>1</v>
+      </c>
+      <c r="B4" s="59">
+        <v>1</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="25">
+        <v>7</v>
+      </c>
+      <c r="F4" s="26">
+        <v>6</v>
+      </c>
+      <c r="G4" s="88"/>
+      <c r="H4" s="59">
+        <v>1</v>
+      </c>
+      <c r="I4" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="19">
+        <v>6</v>
+      </c>
+      <c r="B5" s="20">
+        <v>8</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="19">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2</v>
+      </c>
+      <c r="I5" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14" thickBot="1">
+      <c r="A6" s="36">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="39">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23">
+        <v>6</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="59">
+        <v>1</v>
+      </c>
+      <c r="I6" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14" thickBot="1">
+      <c r="A7" s="59">
+        <v>1</v>
+      </c>
+      <c r="B7" s="59">
+        <v>1</v>
+      </c>
+      <c r="C7" s="44">
+        <v>7</v>
+      </c>
+      <c r="D7" s="27">
+        <v>2</v>
+      </c>
+      <c r="E7" s="25">
+        <v>4</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3</v>
+      </c>
+      <c r="G7" s="27">
+        <v>8</v>
+      </c>
+      <c r="H7" s="43">
+        <v>6</v>
+      </c>
+      <c r="I7" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14" thickBot="1">
+      <c r="A8" s="59">
+        <v>1</v>
+      </c>
+      <c r="B8" s="34">
+        <v>2</v>
+      </c>
+      <c r="C8" s="59">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>6</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5</v>
+      </c>
+      <c r="F8" s="21">
+        <v>7</v>
+      </c>
+      <c r="G8" s="20">
+        <v>4</v>
+      </c>
+      <c r="H8" s="59">
+        <v>1</v>
+      </c>
+      <c r="I8" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23">
+        <v>4</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2</v>
+      </c>
+      <c r="F9" s="24">
+        <v>8</v>
+      </c>
+      <c r="G9" s="23">
+        <v>6</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" thickBot="1">
+      <c r="A10" s="59">
+        <v>1</v>
+      </c>
+      <c r="B10" s="43">
+        <v>7</v>
+      </c>
+      <c r="C10" s="43">
+        <v>6</v>
+      </c>
+      <c r="D10" s="27">
+        <v>3</v>
+      </c>
+      <c r="E10" s="25">
+        <v>9</v>
+      </c>
+      <c r="F10" s="26">
+        <v>4</v>
+      </c>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+      <c r="H10" s="59">
+        <v>1</v>
+      </c>
+      <c r="I10" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14" thickBot="1">
+      <c r="A12" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="19">
+        <v>7</v>
+      </c>
+      <c r="B13" s="20">
+        <v>9</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>8</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="22">
+        <v>2</v>
+      </c>
+      <c r="B14" s="23">
+        <v>6</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="23">
+        <v>3</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14" thickBot="1">
+      <c r="A15" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="25">
+        <v>7</v>
+      </c>
+      <c r="F15" s="26">
+        <v>6</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="19">
+        <v>6</v>
+      </c>
+      <c r="B16" s="20">
+        <v>8</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="19">
+        <v>7</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="20">
+        <v>2</v>
+      </c>
+      <c r="I16" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="23">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22">
+        <v>8</v>
+      </c>
+      <c r="E17" s="23">
+        <v>6</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" thickBot="1">
+      <c r="A18" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="26">
+        <v>7</v>
+      </c>
+      <c r="D18" s="27">
+        <v>2</v>
+      </c>
+      <c r="E18" s="25">
+        <v>4</v>
+      </c>
+      <c r="F18" s="26">
+        <v>3</v>
+      </c>
+      <c r="G18" s="27">
+        <v>8</v>
+      </c>
+      <c r="H18" s="25">
+        <v>6</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="20">
+        <v>2</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="20">
+        <v>5</v>
+      </c>
+      <c r="F19" s="21">
+        <v>7</v>
+      </c>
+      <c r="G19" s="20">
+        <v>4</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="23">
+        <v>4</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2</v>
+      </c>
+      <c r="F20" s="24">
+        <v>8</v>
+      </c>
+      <c r="G20" s="23">
+        <v>6</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14" thickBot="1">
+      <c r="A21" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="25">
+        <v>7</v>
+      </c>
+      <c r="C21" s="25">
+        <v>6</v>
+      </c>
+      <c r="D21" s="27">
+        <v>3</v>
+      </c>
+      <c r="E21" s="25">
+        <v>9</v>
+      </c>
+      <c r="F21" s="26">
+        <v>4</v>
+      </c>
+      <c r="G21" s="25">
+        <v>2</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14" thickBot="1">
+      <c r="A23" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="69">
+        <v>7</v>
+      </c>
+      <c r="B24" s="70">
+        <v>9</v>
+      </c>
+      <c r="C24" s="71">
+        <v>4</v>
+      </c>
+      <c r="D24" s="69">
+        <v>5</v>
+      </c>
+      <c r="E24" s="70">
+        <v>8</v>
+      </c>
+      <c r="F24" s="71">
+        <v>2</v>
+      </c>
+      <c r="G24" s="69">
+        <v>1</v>
+      </c>
+      <c r="H24" s="70">
+        <v>3</v>
+      </c>
+      <c r="I24" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="85">
+        <v>2</v>
+      </c>
+      <c r="B25" s="82">
+        <v>6</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="82">
+        <v>3</v>
+      </c>
+      <c r="F25" s="83">
+        <v>1</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" thickBot="1">
+      <c r="A26" s="59">
+        <v>3</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="59">
+        <v>3</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="79">
+        <v>7</v>
+      </c>
+      <c r="F26" s="77">
+        <v>6</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="69">
+        <v>6</v>
+      </c>
+      <c r="B27" s="70">
+        <v>8</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="69">
+        <v>7</v>
+      </c>
+      <c r="E27" s="70">
+        <v>1</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="69">
+        <v>3</v>
+      </c>
+      <c r="H27" s="70">
+        <v>2</v>
+      </c>
+      <c r="I27" s="71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="85">
+        <v>4</v>
+      </c>
+      <c r="B28" s="82">
+        <v>3</v>
+      </c>
+      <c r="C28" s="83">
+        <v>2</v>
+      </c>
+      <c r="D28" s="85">
+        <v>8</v>
+      </c>
+      <c r="E28" s="82">
+        <v>6</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14" thickBot="1">
+      <c r="A29" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="77">
+        <v>7</v>
+      </c>
+      <c r="D29" s="78">
+        <v>2</v>
+      </c>
+      <c r="E29" s="79">
+        <v>4</v>
+      </c>
+      <c r="F29" s="77">
+        <v>3</v>
+      </c>
+      <c r="G29" s="78">
+        <v>8</v>
+      </c>
+      <c r="H29" s="79">
+        <v>6</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="70">
+        <v>2</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="69">
+        <v>6</v>
+      </c>
+      <c r="E30" s="70">
+        <v>5</v>
+      </c>
+      <c r="F30" s="71">
+        <v>7</v>
+      </c>
+      <c r="G30" s="70">
+        <v>4</v>
+      </c>
+      <c r="H30" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14" thickBot="1">
+      <c r="A31" s="59">
+        <v>3</v>
+      </c>
+      <c r="B31" s="82">
+        <v>4</v>
+      </c>
+      <c r="C31" s="59">
+        <v>3</v>
+      </c>
+      <c r="D31" s="85">
+        <v>1</v>
+      </c>
+      <c r="E31" s="82">
+        <v>2</v>
+      </c>
+      <c r="F31" s="83">
+        <v>8</v>
+      </c>
+      <c r="G31" s="82">
+        <v>6</v>
+      </c>
+      <c r="H31" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14" thickBot="1">
+      <c r="A32" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="79">
+        <v>7</v>
+      </c>
+      <c r="C32" s="79">
+        <v>6</v>
+      </c>
+      <c r="D32" s="78">
+        <v>3</v>
+      </c>
+      <c r="E32" s="79">
+        <v>9</v>
+      </c>
+      <c r="F32" s="77">
+        <v>4</v>
+      </c>
+      <c r="G32" s="79">
+        <v>2</v>
+      </c>
+      <c r="H32" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14" thickBot="1">
+      <c r="A35" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="33">
+        <v>7</v>
+      </c>
+      <c r="B36" s="34">
+        <v>9</v>
+      </c>
+      <c r="C36" s="35">
+        <v>4</v>
+      </c>
+      <c r="D36" s="33">
+        <v>5</v>
+      </c>
+      <c r="E36" s="34">
+        <v>8</v>
+      </c>
+      <c r="F36" s="35">
+        <v>2</v>
+      </c>
+      <c r="G36" s="33">
+        <v>1</v>
+      </c>
+      <c r="H36" s="34">
+        <v>3</v>
+      </c>
+      <c r="I36" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="36">
+        <v>2</v>
+      </c>
+      <c r="B37" s="13">
+        <v>6</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="13">
+        <v>3</v>
+      </c>
+      <c r="F37" s="39">
+        <v>1</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14" thickBot="1">
+      <c r="A38" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="43">
+        <v>7</v>
+      </c>
+      <c r="F38" s="44">
+        <v>6</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="33">
+        <v>6</v>
+      </c>
+      <c r="B39" s="34">
+        <v>8</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="33">
+        <v>7</v>
+      </c>
+      <c r="E39" s="34">
+        <v>1</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="33">
+        <v>3</v>
+      </c>
+      <c r="H39" s="34">
+        <v>2</v>
+      </c>
+      <c r="I39" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="36">
+        <v>4</v>
+      </c>
+      <c r="B40" s="13">
+        <v>3</v>
+      </c>
+      <c r="C40" s="39">
+        <v>2</v>
+      </c>
+      <c r="D40" s="36">
+        <v>8</v>
+      </c>
+      <c r="E40" s="13">
+        <v>6</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14" thickBot="1">
+      <c r="A41" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="44">
+        <v>7</v>
+      </c>
+      <c r="D41" s="46">
+        <v>2</v>
+      </c>
+      <c r="E41" s="43">
+        <v>4</v>
+      </c>
+      <c r="F41" s="44">
+        <v>3</v>
+      </c>
+      <c r="G41" s="46">
+        <v>8</v>
+      </c>
+      <c r="H41" s="43">
+        <v>6</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="34">
+        <v>2</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="33">
+        <v>6</v>
+      </c>
+      <c r="E42" s="34">
+        <v>5</v>
+      </c>
+      <c r="F42" s="35">
+        <v>7</v>
+      </c>
+      <c r="G42" s="34">
+        <v>4</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="13">
+        <v>4</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="36">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2</v>
+      </c>
+      <c r="F43" s="39">
+        <v>8</v>
+      </c>
+      <c r="G43" s="13">
+        <v>6</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14" thickBot="1">
+      <c r="A44" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="43">
+        <v>7</v>
+      </c>
+      <c r="C44" s="43">
+        <v>6</v>
+      </c>
+      <c r="D44" s="46">
+        <v>3</v>
+      </c>
+      <c r="E44" s="43">
+        <v>9</v>
+      </c>
+      <c r="F44" s="44">
+        <v>4</v>
+      </c>
+      <c r="G44" s="43">
+        <v>2</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="44">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="9" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3">
+        <v>9</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <f>SUM(A1:I1)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J9" si="0">SUM(A2:I2)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14" thickBot="1">
+      <c r="A3" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14" thickBot="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>8</v>
+      </c>
+      <c r="G8" s="6">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14" thickBot="1">
+      <c r="A9" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <f>SUM(A1:A9)</f>
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:I10" si="1">SUM(B1:B9)</f>
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/SudokuNotes.xlsx
+++ b/SudokuNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="17240" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="17240" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="60">
   <si>
     <t>(3,5,9)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,6 +60,10 @@
   </si>
   <si>
     <t>(4,9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>puzzle 2 pre-guessing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1338,14 +1343,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1409,10 +1413,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
@@ -1421,27 +1425,27 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="14" thickBot="1">
       <c r="D6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="9">
         <v>7</v>
@@ -1450,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="10">
         <v>2</v>
@@ -1467,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2">
         <v>7</v>
@@ -1476,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -1505,24 +1509,24 @@
         <v>6</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="14" thickBot="1">
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="10">
         <v>7</v>
@@ -1543,18 +1547,18 @@
         <v>6</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:12">
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
@@ -1569,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="4">
         <v>3</v>
@@ -1577,13 +1581,13 @@
     </row>
     <row r="11" spans="4:12">
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6">
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -1598,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7">
         <v>7</v>
@@ -1606,7 +1610,7 @@
     </row>
     <row r="12" spans="4:12" ht="14" thickBot="1">
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="9">
         <v>7</v>
@@ -1627,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="10">
         <v>8</v>
@@ -1635,7 +1639,7 @@
     </row>
     <row r="20" spans="19:24">
       <c r="S20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -1646,7 +1650,7 @@
     </row>
     <row r="21" spans="19:24">
       <c r="S21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T21">
         <v>4</v>
@@ -1657,7 +1661,7 @@
     </row>
     <row r="22" spans="19:24">
       <c r="S22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T22">
         <v>5</v>
@@ -1671,7 +1675,7 @@
     </row>
     <row r="23" spans="19:24">
       <c r="S23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T23">
         <v>4</v>
@@ -1691,7 +1695,7 @@
     </row>
     <row r="24" spans="19:24">
       <c r="S24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T24">
         <v>5</v>
@@ -1702,7 +1706,7 @@
     </row>
     <row r="25" spans="19:24">
       <c r="S25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -1719,7 +1723,7 @@
     </row>
     <row r="26" spans="19:24">
       <c r="S26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -1730,7 +1734,7 @@
     </row>
     <row r="27" spans="19:24">
       <c r="S27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -1747,7 +1751,7 @@
     </row>
     <row r="28" spans="19:24">
       <c r="S28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T28">
         <v>4</v>
@@ -1758,7 +1762,7 @@
     </row>
     <row r="29" spans="19:24">
       <c r="S29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T29">
         <v>5</v>
@@ -1769,7 +1773,7 @@
     </row>
     <row r="30" spans="19:24">
       <c r="S30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T30">
         <v>4</v>
@@ -1786,7 +1790,7 @@
     </row>
     <row r="31" spans="19:24">
       <c r="S31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T31">
         <v>5</v>
@@ -1797,7 +1801,7 @@
     </row>
     <row r="32" spans="19:24">
       <c r="S32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T32">
         <v>5</v>
@@ -1808,7 +1812,7 @@
     </row>
     <row r="33" spans="19:23">
       <c r="S33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T33">
         <v>5</v>
@@ -1819,7 +1823,7 @@
     </row>
     <row r="34" spans="19:23">
       <c r="S34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T34">
         <v>5</v>
@@ -1833,7 +1837,7 @@
     </row>
     <row r="35" spans="19:23">
       <c r="S35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -1850,7 +1854,7 @@
     </row>
     <row r="36" spans="19:23">
       <c r="S36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -1864,7 +1868,7 @@
     </row>
     <row r="37" spans="19:23">
       <c r="S37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -1878,7 +1882,7 @@
     </row>
     <row r="38" spans="19:23">
       <c r="S38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -1889,7 +1893,7 @@
     </row>
     <row r="39" spans="19:23">
       <c r="S39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -1903,7 +1907,7 @@
     </row>
     <row r="40" spans="19:23">
       <c r="S40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -1917,7 +1921,7 @@
     </row>
     <row r="41" spans="19:23">
       <c r="S41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -1931,7 +1935,7 @@
     </row>
     <row r="42" spans="19:23">
       <c r="S42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -1942,7 +1946,7 @@
     </row>
     <row r="43" spans="19:23">
       <c r="S43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T43">
         <v>3</v>
@@ -1956,7 +1960,7 @@
     </row>
     <row r="44" spans="19:23">
       <c r="S44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T44">
         <v>3</v>
@@ -1970,7 +1974,7 @@
     </row>
     <row r="45" spans="19:23">
       <c r="S45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T45">
         <v>5</v>
@@ -1981,7 +1985,7 @@
     </row>
     <row r="46" spans="19:23">
       <c r="S46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -1992,7 +1996,7 @@
     </row>
     <row r="47" spans="19:23">
       <c r="S47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T47">
         <v>1</v>
@@ -2076,10 +2080,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="23">
         <v>3</v>
@@ -2088,26 +2092,26 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="4:13" ht="14" thickBot="1">
       <c r="D6" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
@@ -2118,10 +2122,10 @@
         <v>6</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="26">
         <v>2</v>
@@ -2135,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="19">
         <v>7</v>
@@ -2144,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="19">
         <v>3</v>
@@ -2173,24 +2177,24 @@
         <v>6</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="4:13" ht="14" thickBot="1">
       <c r="D9" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="26">
         <v>7</v>
@@ -2211,18 +2215,18 @@
         <v>6</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="4:13">
       <c r="D10" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="20">
         <v>2</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="19">
         <v>6</v>
@@ -2237,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="21">
         <v>3</v>
@@ -2245,7 +2249,7 @@
     </row>
     <row r="11" spans="4:13">
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="23">
         <v>4</v>
@@ -2266,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="24">
         <v>7</v>
@@ -2274,7 +2278,7 @@
     </row>
     <row r="12" spans="4:13" ht="14" thickBot="1">
       <c r="D12" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="25">
         <v>7</v>
@@ -2295,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" s="26">
         <v>8</v>
@@ -2303,7 +2307,7 @@
     </row>
     <row r="19" spans="5:10">
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
@@ -2317,7 +2321,7 @@
     </row>
     <row r="20" spans="5:10">
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -2331,7 +2335,7 @@
     </row>
     <row r="21" spans="5:10">
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1">
         <v>5</v>
@@ -2347,7 +2351,7 @@
     </row>
     <row r="22" spans="5:10">
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
@@ -2367,7 +2371,7 @@
     </row>
     <row r="23" spans="5:10">
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -2381,7 +2385,7 @@
     </row>
     <row r="24" spans="5:10">
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2398,7 +2402,7 @@
     </row>
     <row r="25" spans="5:10">
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2411,7 +2415,7 @@
     </row>
     <row r="26" spans="5:10">
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2428,7 +2432,7 @@
     </row>
     <row r="27" spans="5:10">
       <c r="E27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
@@ -2441,7 +2445,7 @@
     </row>
     <row r="28" spans="5:10">
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F28" s="1">
         <v>5</v>
@@ -2454,7 +2458,7 @@
     </row>
     <row r="29" spans="5:10">
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
@@ -2471,7 +2475,7 @@
     </row>
     <row r="30" spans="5:10">
       <c r="E30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" s="1">
         <v>5</v>
@@ -2484,7 +2488,7 @@
     </row>
     <row r="31" spans="5:10">
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" s="1">
         <v>5</v>
@@ -2497,7 +2501,7 @@
     </row>
     <row r="32" spans="5:10">
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1">
         <v>5</v>
@@ -2510,7 +2514,7 @@
     </row>
     <row r="33" spans="5:9">
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" s="1">
         <v>5</v>
@@ -2525,7 +2529,7 @@
     </row>
     <row r="34" spans="5:9">
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -2542,7 +2546,7 @@
     </row>
     <row r="35" spans="5:9">
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2557,7 +2561,7 @@
     </row>
     <row r="36" spans="5:9">
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -2571,7 +2575,7 @@
     </row>
     <row r="37" spans="5:9">
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -2583,7 +2587,7 @@
     </row>
     <row r="38" spans="5:9">
       <c r="E38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2597,7 +2601,7 @@
     </row>
     <row r="39" spans="5:9">
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -2611,7 +2615,7 @@
     </row>
     <row r="40" spans="5:9">
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -2625,7 +2629,7 @@
     </row>
     <row r="41" spans="5:9">
       <c r="E41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -2637,7 +2641,7 @@
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -2651,7 +2655,7 @@
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -2665,7 +2669,7 @@
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -2676,7 +2680,7 @@
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2687,7 +2691,7 @@
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2724,7 +2728,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -2735,7 +2739,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -2746,7 +2750,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -2760,7 +2764,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2780,7 +2784,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -2791,7 +2795,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2808,7 +2812,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2819,7 +2823,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2836,7 +2840,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2847,7 +2851,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2858,7 +2862,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2875,7 +2879,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2886,7 +2890,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -2897,7 +2901,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -2908,7 +2912,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -2922,7 +2926,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2939,7 +2943,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2953,7 +2957,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2967,7 +2971,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2978,7 +2982,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2992,7 +2996,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3006,7 +3010,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3020,7 +3024,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3031,7 +3035,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3045,7 +3049,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -3059,7 +3063,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3070,7 +3074,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3081,7 +3085,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3210,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="19">
         <v>7</v>
@@ -3219,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="19">
         <v>3</v>
@@ -3248,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="92" t="s">
         <v>4</v>
@@ -3341,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="24">
         <v>7</v>
@@ -3418,10 +3422,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
@@ -3430,25 +3434,25 @@
         <v>1</v>
       </c>
       <c r="G14" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="62" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14" thickBot="1">
       <c r="A15" s="61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="67" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="61" t="s">
         <v>7</v>
       </c>
@@ -3459,10 +3463,10 @@
         <v>6</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="26">
         <v>2</v>
@@ -3476,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="19">
         <v>7</v>
@@ -3485,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="19">
         <v>3</v>
@@ -3514,24 +3518,24 @@
         <v>6</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" thickBot="1">
       <c r="A18" s="61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="26">
         <v>7</v>
@@ -3552,18 +3556,18 @@
         <v>6</v>
       </c>
       <c r="I18" s="67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="20">
         <v>2</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="19">
         <v>6</v>
@@ -3578,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="21">
         <v>3</v>
@@ -3586,7 +3590,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="23">
         <v>4</v>
@@ -3607,7 +3611,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="24">
         <v>7</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="21" spans="1:9" ht="14" thickBot="1">
       <c r="A21" s="61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="25">
         <v>7</v>
@@ -3636,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" s="26">
         <v>8</v>
@@ -3684,10 +3688,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="82">
         <v>3</v>
@@ -3696,13 +3700,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="74" t="s">
         <v>45</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="74" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" thickBot="1">
@@ -3710,7 +3714,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="59">
         <v>3</v>
@@ -3725,10 +3729,10 @@
         <v>6</v>
       </c>
       <c r="G26" s="75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" s="77">
         <v>2</v>
@@ -3742,7 +3746,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" s="69">
         <v>7</v>
@@ -3751,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="69">
         <v>3</v>
@@ -3780,24 +3784,24 @@
         <v>6</v>
       </c>
       <c r="F28" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I28" s="74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14" thickBot="1">
       <c r="A29" s="75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="77">
         <v>7</v>
@@ -3818,18 +3822,18 @@
         <v>6</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="70">
         <v>2</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="69">
         <v>6</v>
@@ -3844,7 +3848,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I30" s="71">
         <v>3</v>
@@ -3873,7 +3877,7 @@
         <v>6</v>
       </c>
       <c r="H31" s="73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" s="83">
         <v>7</v>
@@ -3881,7 +3885,7 @@
     </row>
     <row r="32" spans="1:9" ht="14" thickBot="1">
       <c r="A32" s="75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="79">
         <v>7</v>
@@ -3902,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" s="77">
         <v>8</v>
@@ -3950,10 +3954,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="13">
         <v>3</v>
@@ -3962,25 +3966,25 @@
         <v>1</v>
       </c>
       <c r="G37" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="37" t="s">
         <v>45</v>
-      </c>
-      <c r="H37" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14" thickBot="1">
       <c r="A38" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>46</v>
-      </c>
       <c r="D38" s="58" t="s">
         <v>8</v>
       </c>
@@ -3991,10 +3995,10 @@
         <v>6</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" s="44">
         <v>2</v>
@@ -4008,7 +4012,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="33">
         <v>7</v>
@@ -4017,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" s="33">
         <v>3</v>
@@ -4046,24 +4050,24 @@
         <v>6</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14" thickBot="1">
       <c r="A41" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="44">
         <v>7</v>
@@ -4084,18 +4088,18 @@
         <v>6</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="34">
         <v>2</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="33">
         <v>6</v>
@@ -4110,7 +4114,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I42" s="35">
         <v>3</v>
@@ -4118,7 +4122,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="13">
         <v>4</v>
@@ -4139,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I43" s="39">
         <v>7</v>
@@ -4147,7 +4151,7 @@
     </row>
     <row r="44" spans="1:9" ht="14" thickBot="1">
       <c r="A44" s="40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="43">
         <v>7</v>
@@ -4168,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" s="44">
         <v>8</v>
@@ -4191,7 +4195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -4206,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2">
         <v>6</v>
@@ -4221,7 +4225,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="4">
         <v>1</v>
@@ -4266,7 +4270,7 @@
     </row>
     <row r="3" spans="1:10" ht="14" thickBot="1">
       <c r="A3" s="53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -4308,7 +4312,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -4317,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3">
         <v>6</v>
@@ -4371,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -4398,7 +4402,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
@@ -4464,7 +4468,7 @@
     </row>
     <row r="9" spans="1:10" ht="14" thickBot="1">
       <c r="A9" s="54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9">
         <v>8</v>
@@ -4476,10 +4480,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9">
         <v>6</v>
@@ -4541,7 +4545,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -4556,7 +4560,7 @@
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4593,7 +4597,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4631,7 +4635,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4640,7 +4644,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>6</v>
@@ -4686,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4709,7 +4713,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -4767,7 +4771,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -4779,10 +4783,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -4791,6 +4795,298 @@
         <v>3</v>
       </c>
       <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="9" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14" thickBot="1"/>
+    <row r="3" spans="1:10">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14" thickBot="1">
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14" thickBot="1">
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9">
+        <v>3</v>
+      </c>
+      <c r="J11" s="10">
         <v>2</v>
       </c>
     </row>
